--- a/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
+++ b/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t xml:space="preserve">REPORTE DE INCIDENCIAS </t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t xml:space="preserve">Aseguradoras cambiar a mayuscula el ingreso  direccion </t>
+  </si>
+  <si>
+    <t>Cuando actualizo el formulario de ingreso de aseguradoras no se limpia se queda con la información que guarde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando Ingreso otro usuario en el formulario de aseguradora borra al ya registardo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El icono de agregar ramos no funciona el pap pup </t>
   </si>
 </sst>
 </file>
@@ -179,18 +188,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -206,6 +209,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,16 +610,16 @@
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -616,233 +628,245 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="A26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
+++ b/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t xml:space="preserve">REPORTE DE INCIDENCIAS </t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t xml:space="preserve">El icono de agregar ramos no funciona el pap pup </t>
+  </si>
+  <si>
+    <t>Ingresa Usuario sin saber a que compañía pertenece</t>
   </si>
 </sst>
 </file>
@@ -210,14 +213,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +613,7 @@
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -619,7 +622,7 @@
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -727,7 +730,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -736,7 +739,7 @@
       <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -754,8 +757,12 @@
       <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
+      <c r="A27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">

--- a/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
+++ b/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t xml:space="preserve">REPORTE DE INCIDENCIAS </t>
   </si>
@@ -90,6 +90,21 @@
   </si>
   <si>
     <t>Ingresa Usuario sin saber a que compañía pertenece</t>
+  </si>
+  <si>
+    <t>Pap pup de agregar ramos agrega ramamos sin saber a que aseguradora pertenece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear codigo por ramo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pap pup  de ramo esta agregando sin valores hay que validar </t>
+  </si>
+  <si>
+    <t>Pap pup ramo esta muy grande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pap pup de ramo poner todo en mayusculas </t>
   </si>
 </sst>
 </file>
@@ -597,7 +612,7 @@
   <dimension ref="A10:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,10 +766,10 @@
       <c r="A26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
@@ -765,30 +780,50 @@
       </c>
       <c r="C27" s="7"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C28" s="7"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
+      <c r="A29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
+      <c r="A30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C30" s="7"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C31" s="7"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
+      <c r="A32" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="C32" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>

--- a/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
+++ b/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t xml:space="preserve">REPORTE DE INCIDENCIAS </t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pap pup de ramo poner todo en mayusculas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente solo busca nombres con minusculas </t>
   </si>
 </sst>
 </file>
@@ -611,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,8 +829,12 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C33" s="7"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">

--- a/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
+++ b/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t xml:space="preserve">REPORTE DE INCIDENCIAS </t>
   </si>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t xml:space="preserve">Cliente solo busca nombres con minusculas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No hay mensaje cuando ingreso una cedula no registrada en la base </t>
+  </si>
+  <si>
+    <t>Cuando agrego un usuario nuevo en cualquier aseguradora borra el mail y telefono del usuario ingresado en la lista</t>
+  </si>
+  <si>
+    <t>No deja agregar mas de tres aseguradoras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No actualiza la pagina tuve que volver a deployar para poder subir informacion </t>
   </si>
 </sst>
 </file>
@@ -612,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:C49"/>
+  <dimension ref="A10:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,10 +772,10 @@
       <c r="A25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
@@ -832,29 +844,45 @@
       <c r="A33" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="7"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C34" s="7"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C35" s="7"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C36" s="7"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C37" s="7"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -899,23 +927,8 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
+++ b/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t xml:space="preserve">REPORTE DE INCIDENCIAS </t>
   </si>
@@ -120,6 +120,24 @@
   </si>
   <si>
     <t xml:space="preserve">No actualiza la pagina tuve que volver a deployar para poder subir informacion </t>
+  </si>
+  <si>
+    <t>En el papup de forma de pago deberia realizar el calculo automatico por el numero de debitos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falta boton de guardar en el papup de pago poliza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No genera la tabla de amortizacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el ingreso cliente no me deja modificar los datos del contacto </t>
+  </si>
+  <si>
+    <t>En el ingreso cllienets persona juridica no hay donde poner persona de contacto</t>
+  </si>
+  <si>
+    <t>Cuando se trata de modificar el contacto se borra todo y no deja ver que se sa a modificar</t>
   </si>
 </sst>
 </file>
@@ -626,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,34 +903,58 @@
       </c>
       <c r="C37" s="7"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C38" s="7"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
+      <c r="A39" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C39" s="7"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
+      <c r="A40" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C40" s="7"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
+      <c r="A41" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
+      <c r="C41" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C42" s="7"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C43" s="7"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">

--- a/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
+++ b/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
+    <sheet name="ASEGURADORA" sheetId="2" r:id="rId2"/>
+    <sheet name="ACCPERSONALES" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="39">
   <si>
     <t xml:space="preserve">REPORTE DE INCIDENCIAS </t>
   </si>
@@ -113,9 +115,6 @@
     <t xml:space="preserve">No hay mensaje cuando ingreso una cedula no registrada en la base </t>
   </si>
   <si>
-    <t>Cuando agrego un usuario nuevo en cualquier aseguradora borra el mail y telefono del usuario ingresado en la lista</t>
-  </si>
-  <si>
     <t>No deja agregar mas de tres aseguradoras</t>
   </si>
   <si>
@@ -138,6 +137,12 @@
   </si>
   <si>
     <t>Cuando se trata de modificar el contacto se borra todo y no deja ver que se sa a modificar</t>
+  </si>
+  <si>
+    <t>En persona Juridica solo debe haber persona de contacto no apellido materno</t>
+  </si>
+  <si>
+    <t>Cuando grabo un contacto nuevo graba  en minusculas</t>
   </si>
 </sst>
 </file>
@@ -308,6 +313,122 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F0756E-9FB8-4B54-B059-B9514945C028}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3276600" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3276600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\kruger\Dropbox\JIPOVI\Documentos Varios\logoJipovi.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4C2787-9CA9-46F8-B0D9-4BC4DDCBF2F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3276600" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3276600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\kruger\Dropbox\JIPOVI\Documentos Varios\logoJipovi.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCC3D88E-A717-4C60-A463-537184D77F69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -642,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:C46"/>
+  <dimension ref="A10:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,36 +898,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="7"/>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7" t="s">
-        <v>5</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>21</v>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>8</v>
@@ -815,162 +936,29 @@
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>8</v>
-      </c>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="7"/>
       <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="7"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="7"/>
-    </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="7"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="7"/>
-    </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="7"/>
-    </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="7"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="7"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="7"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="7"/>
-    </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="7"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -980,4 +968,455 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A10:C35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:A12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A10:C34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:A12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
+++ b/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ENTORNO_SGS\Fuentes\workspace\Documentacion\Pruebas Noviembre\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
     <sheet name="ASEGURADORA" sheetId="2" r:id="rId2"/>
     <sheet name="ACCPERSONALES" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="47">
   <si>
     <t xml:space="preserve">REPORTE DE INCIDENCIAS </t>
   </si>
@@ -143,12 +138,36 @@
   </si>
   <si>
     <t>Cuando grabo un contacto nuevo graba  en minusculas</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Solo deja ingresar 13 caracteres</t>
+  </si>
+  <si>
+    <t>Es campo no es obligatorio</t>
+  </si>
+  <si>
+    <t>Capturar pantalla para ver el error</t>
+  </si>
+  <si>
+    <t>La aseguradora es en la nueva que estoy agregando</t>
+  </si>
+  <si>
+    <t>Explicar de mejor manera</t>
+  </si>
+  <si>
+    <t>Esto no es de aseguradora</t>
+  </si>
+  <si>
+    <t>??</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -174,12 +193,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -244,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -274,6 +299,22 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -312,7 +353,7 @@
         <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\kruger\Dropbox\JIPOVI\Documentos Varios\logoJipovi.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F0756E-9FB8-4B54-B059-B9514945C028}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9F0756E-9FB8-4B54-B059-B9514945C028}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -370,7 +411,7 @@
         <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\kruger\Dropbox\JIPOVI\Documentos Varios\logoJipovi.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4C2787-9CA9-46F8-B0D9-4BC4DDCBF2F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD4C2787-9CA9-46F8-B0D9-4BC4DDCBF2F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -428,7 +469,7 @@
         <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\kruger\Dropbox\JIPOVI\Documentos Varios\logoJipovi.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCC3D88E-A717-4C60-A463-537184D77F69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BCC3D88E-A717-4C60-A463-537184D77F69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -509,7 +550,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -561,7 +602,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -755,7 +796,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -763,25 +804,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:C31"/>
+  <dimension ref="A10:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>1</v>
       </c>
@@ -790,7 +832,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
@@ -798,8 +840,11 @@
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
@@ -807,17 +852,21 @@
       <c r="C13" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -825,8 +874,9 @@
       <c r="C15" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>10</v>
       </c>
@@ -834,8 +884,9 @@
       <c r="C16" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -843,8 +894,9 @@
       <c r="C17" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>12</v>
       </c>
@@ -852,8 +904,9 @@
       <c r="C18" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
@@ -861,8 +914,9 @@
       <c r="C19" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>14</v>
       </c>
@@ -870,8 +924,9 @@
       <c r="C20" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>15</v>
       </c>
@@ -879,8 +934,9 @@
       <c r="C21" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
@@ -888,8 +944,9 @@
       <c r="C22" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>17</v>
       </c>
@@ -897,8 +954,9 @@
       <c r="C23" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
@@ -906,17 +964,19 @@
       <c r="C24" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="7"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
@@ -924,41 +984,49 @@
       <c r="C26" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="7"/>
-    </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="B27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="B28" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -972,25 +1040,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:C35"/>
+  <dimension ref="A10:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
+    <col min="4" max="4" width="29" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>1</v>
       </c>
@@ -999,7 +1068,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
@@ -1007,8 +1076,11 @@
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
@@ -1016,8 +1088,9 @@
       <c r="C13" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>18</v>
       </c>
@@ -1025,8 +1098,9 @@
         <v>8</v>
       </c>
       <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>19</v>
       </c>
@@ -1034,8 +1108,9 @@
       <c r="C15" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
@@ -1043,8 +1118,9 @@
       <c r="C16" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
@@ -1052,8 +1128,11 @@
         <v>8</v>
       </c>
       <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D17" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>22</v>
       </c>
@@ -1061,8 +1140,11 @@
         <v>8</v>
       </c>
       <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
@@ -1070,8 +1152,11 @@
         <v>8</v>
       </c>
       <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
@@ -1079,8 +1164,9 @@
         <v>8</v>
       </c>
       <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
@@ -1088,8 +1174,9 @@
       <c r="C21" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
@@ -1097,8 +1184,9 @@
       <c r="C22" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>29</v>
       </c>
@@ -1106,8 +1194,9 @@
         <v>8</v>
       </c>
       <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>30</v>
       </c>
@@ -1115,8 +1204,11 @@
         <v>8</v>
       </c>
       <c r="C24" s="7"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>33</v>
       </c>
@@ -1124,8 +1216,11 @@
         <v>8</v>
       </c>
       <c r="C25" s="7"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>38</v>
       </c>
@@ -1133,51 +1228,61 @@
       <c r="C26" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
+      <c r="D35" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1196,7 +1301,7 @@
       <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
   </cols>
@@ -1208,7 +1313,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>1</v>
       </c>
@@ -1217,7 +1322,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
@@ -1226,7 +1331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
@@ -1235,7 +1340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>18</v>
       </c>
@@ -1253,7 +1358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
@@ -1262,7 +1367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
@@ -1280,7 +1385,7 @@
       </c>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
@@ -1289,7 +1394,7 @@
       </c>
       <c r="C19" s="7"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
@@ -1298,7 +1403,7 @@
       </c>
       <c r="C20" s="7"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
@@ -1307,7 +1412,7 @@
       </c>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
@@ -1316,7 +1421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
@@ -1325,7 +1430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>29</v>
       </c>
@@ -1352,7 +1457,7 @@
       </c>
       <c r="C26" s="7"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
@@ -1361,7 +1466,7 @@
       </c>
       <c r="C27" s="7"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>33</v>
       </c>
@@ -1370,7 +1475,7 @@
       </c>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>34</v>
       </c>
@@ -1397,17 +1502,17 @@
       </c>
       <c r="C31" s="7"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>

--- a/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
+++ b/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ENTORNO_SGS\Fuentes\workspace\Documentacion\Pruebas Noviembre\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
     <sheet name="ASEGURADORA" sheetId="2" r:id="rId2"/>
     <sheet name="ACCPERSONALES" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
   <si>
     <t xml:space="preserve">REPORTE DE INCIDENCIAS </t>
   </si>
@@ -113,9 +118,6 @@
     <t>No deja agregar mas de tres aseguradoras</t>
   </si>
   <si>
-    <t xml:space="preserve">No actualiza la pagina tuve que volver a deployar para poder subir informacion </t>
-  </si>
-  <si>
     <t>En el papup de forma de pago deberia realizar el calculo automatico por el numero de debitos</t>
   </si>
   <si>
@@ -158,16 +160,13 @@
     <t>Explicar de mejor manera</t>
   </si>
   <si>
-    <t>Esto no es de aseguradora</t>
-  </si>
-  <si>
-    <t>??</t>
+    <t xml:space="preserve">No despliega </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -202,7 +201,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -294,6 +293,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -301,20 +306,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -353,7 +353,7 @@
         <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\kruger\Dropbox\JIPOVI\Documentos Varios\logoJipovi.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9F0756E-9FB8-4B54-B059-B9514945C028}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F0756E-9FB8-4B54-B059-B9514945C028}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -411,7 +411,7 @@
         <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\kruger\Dropbox\JIPOVI\Documentos Varios\logoJipovi.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD4C2787-9CA9-46F8-B0D9-4BC4DDCBF2F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4C2787-9CA9-46F8-B0D9-4BC4DDCBF2F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -469,7 +469,7 @@
         <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\kruger\Dropbox\JIPOVI\Documentos Varios\logoJipovi.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BCC3D88E-A717-4C60-A463-537184D77F69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCC3D88E-A717-4C60-A463-537184D77F69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -796,7 +796,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -804,16 +804,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:D31"/>
+  <dimension ref="A10:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -823,8 +823,8 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -832,8 +832,8 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -841,10 +841,10 @@
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
@@ -854,19 +854,19 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -876,7 +876,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>10</v>
       </c>
@@ -886,7 +886,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -896,7 +896,7 @@
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>12</v>
       </c>
@@ -906,7 +906,7 @@
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
@@ -916,7 +916,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>14</v>
       </c>
@@ -926,7 +926,7 @@
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>15</v>
       </c>
@@ -936,7 +936,7 @@
       </c>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
@@ -946,7 +946,7 @@
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>17</v>
       </c>
@@ -956,7 +956,7 @@
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
@@ -966,19 +966,19 @@
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+    <row r="25" spans="1:4" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-    </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
@@ -986,47 +986,111 @@
       </c>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+    <row r="27" spans="1:4" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="16"/>
+    </row>
+    <row r="28" spans="1:4" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" spans="1:4" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-    </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1040,27 +1104,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:D35"/>
+  <dimension ref="A10:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
-    <col min="4" max="4" width="29" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1068,19 +1132,19 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
@@ -1090,7 +1154,7 @@
       </c>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>18</v>
       </c>
@@ -1100,7 +1164,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>19</v>
       </c>
@@ -1110,7 +1174,7 @@
       </c>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
@@ -1120,7 +1184,7 @@
       </c>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
@@ -1129,10 +1193,10 @@
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>22</v>
       </c>
@@ -1141,10 +1205,10 @@
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
@@ -1153,10 +1217,10 @@
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
@@ -1166,7 +1230,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
@@ -1176,7 +1240,7 @@
       </c>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
@@ -1186,7 +1250,7 @@
       </c>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>29</v>
       </c>
@@ -1196,93 +1260,69 @@
       <c r="C23" s="7"/>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7" t="s">
-        <v>5</v>
-      </c>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="9"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1295,13 +1335,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:C34"/>
+  <dimension ref="A10:C18"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
   </cols>
@@ -1313,8 +1353,8 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1322,8 +1362,8 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -1331,191 +1371,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>18</v>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>20</v>
-      </c>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="7"/>
-    </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="7"/>
-    </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="7"/>
-    </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="7"/>
-    </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-    </row>
-    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
+++ b/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
     <sheet name="ASEGURADORA" sheetId="2" r:id="rId2"/>
     <sheet name="ACCPERSONALES" sheetId="3" r:id="rId3"/>
+    <sheet name="REPORTE CLIENTE" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="48">
   <si>
     <t xml:space="preserve">REPORTE DE INCIDENCIAS </t>
   </si>
@@ -160,7 +161,16 @@
     <t>Explicar de mejor manera</t>
   </si>
   <si>
-    <t xml:space="preserve">No despliega </t>
+    <t xml:space="preserve">El la busqueda de clientes deberis permitir modificar el cliente en dirección, telefono, mail </t>
+  </si>
+  <si>
+    <t>Al realizar la carga masiva  en la base de datos no genera el codigo de cliente, solo me genera con clientes ingresados  directamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No realiza la busqueda de clienets por numero de cedula </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No  esta realizando busqueda por el numero de cedula </t>
   </si>
 </sst>
 </file>
@@ -299,12 +309,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -315,6 +319,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,6 +517,64 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3276600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\kruger\Dropbox\JIPOVI\Documentos Varios\logoJipovi.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D1612D-985F-468A-8CCD-DB9DB5E0E865}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3276600" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -550,7 +618,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -602,7 +670,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -806,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,7 +892,7 @@
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -833,7 +901,7 @@
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -854,15 +922,15 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="16" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -966,15 +1034,15 @@
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:4" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="16"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
@@ -986,49 +1054,55 @@
       </c>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+    <row r="27" spans="1:4" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="16"/>
-    </row>
-    <row r="28" spans="1:4" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="16"/>
-    </row>
-    <row r="29" spans="1:4" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:4" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="16" t="s">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="7"/>
+    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C30" s="7"/>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
@@ -1107,7 +1181,7 @@
   <dimension ref="A10:D33"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,7 +1198,7 @@
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1133,7 +1207,7 @@
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -1337,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:C18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,7 +1428,7 @@
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1363,7 +1437,7 @@
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -1396,6 +1470,91 @@
       <c r="B15" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:A12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A10:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">

--- a/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
+++ b/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="58">
   <si>
     <t xml:space="preserve">REPORTE DE INCIDENCIAS </t>
   </si>
@@ -167,10 +167,40 @@
     <t>Al realizar la carga masiva  en la base de datos no genera el codigo de cliente, solo me genera con clientes ingresados  directamente</t>
   </si>
   <si>
-    <t xml:space="preserve">No realiza la busqueda de clienets por numero de cedula </t>
-  </si>
-  <si>
     <t xml:space="preserve">No  esta realizando busqueda por el numero de cedula </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No realiza la busqueda de clientes por numero de cedula </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prima total por persona debe calcularse automaticamente de la siguiente manera: prima neta por persona + 3,5% super de bancos y seguros y 0,50% Seguros Campesino + Derechos de  + IVA emisión  y el campo no debe ser modificado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo tasa  no va en la pantalla principal </t>
+  </si>
+  <si>
+    <t>Se debe agregar un campo de numero de asegurados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregar un valor total  que  la multiplicación del numero de asegurados  por la prima total por persona calculo automatico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambiar a mayusculas datos del grupo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar campo parentezco y sexo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falta botonde carga masiva de clientes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pantalla inicial debria ir la informacion de los grupos, el ingreso de personas a los grupos deberia activarse cuando la cotización cambie de estado a emitido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debe existir campos que informen cada valor del grupo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo de RUC esta desactivado no me permite ingresar el numero </t>
   </si>
 </sst>
 </file>
@@ -875,7 +905,7 @@
   <dimension ref="A10:D41"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A32" sqref="A32:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,62 +1137,56 @@
       <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
+      <c r="B38" s="7"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
+      <c r="B39" s="7"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
+      <c r="B40" s="7"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
+      <c r="B41" s="7"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
     </row>
@@ -1180,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,9 +1368,13 @@
       </c>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C25" s="6"/>
       <c r="D25" s="9"/>
     </row>
@@ -1409,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:C18"/>
+  <dimension ref="A10:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,22 +1502,173 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
+    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1540,7 +1719,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>8</v>

--- a/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
+++ b/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="60">
   <si>
     <t xml:space="preserve">REPORTE DE INCIDENCIAS </t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t xml:space="preserve">Campo de RUC esta desactivado no me permite ingresar el numero </t>
+  </si>
+  <si>
+    <t>Cuando biuco con numero de cedula solo me despliega dirección, contactos, numero de cedula no despliega nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No me permite buscar por nombre, apellido, Razon Social </t>
   </si>
 </sst>
 </file>
@@ -904,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,15 +1142,29 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
     </row>
@@ -1204,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
+++ b/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
@@ -910,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,10 +1126,10 @@
       <c r="A30" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1146,10 +1146,10 @@
       <c r="A32" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">

--- a/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
+++ b/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
@@ -910,7 +910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,10 +1330,10 @@
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="D19" s="9" t="s">
         <v>43</v>
       </c>

--- a/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
+++ b/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="62">
   <si>
     <t xml:space="preserve">REPORTE DE INCIDENCIAS </t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t xml:space="preserve">No me permite buscar por nombre, apellido, Razon Social </t>
+  </si>
+  <si>
+    <t>Dentro de coberturas debe existir un textbox que permita recibir cantidades</t>
+  </si>
+  <si>
+    <t>El valor el grupo debe generarse el total de la prima por persona multiplicado por el numero depersonas que tiene el grupo</t>
   </si>
 </sst>
 </file>
@@ -910,7 +916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -1224,7 +1230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -1459,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1610,14 +1616,22 @@
       </c>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">

--- a/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
+++ b/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ENTORNO_SGS\Fuentes\workspace\Documentacion\Pruebas Noviembre\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="ACCPERSONALES" sheetId="3" r:id="rId3"/>
     <sheet name="REPORTE CLIENTE" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="66">
   <si>
     <t xml:space="preserve">REPORTE DE INCIDENCIAS </t>
   </si>
@@ -209,16 +204,28 @@
     <t xml:space="preserve">No me permite buscar por nombre, apellido, Razon Social </t>
   </si>
   <si>
-    <t>Dentro de coberturas debe existir un textbox que permita recibir cantidades</t>
-  </si>
-  <si>
-    <t>El valor el grupo debe generarse el total de la prima por persona multiplicado por el numero depersonas que tiene el grupo</t>
+    <t>La carga masiva solo se considero para clientes en la pantalla de clientes</t>
+  </si>
+  <si>
+    <t>Revisar</t>
+  </si>
+  <si>
+    <t>Revisar, al dar clic en el icono</t>
+  </si>
+  <si>
+    <t>revisar</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t>Revisar esta funcionalidad el campo de RUC solo se debe ingresar una vez en la busqueda y queda guardado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -405,7 +412,7 @@
         <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\kruger\Dropbox\JIPOVI\Documentos Varios\logoJipovi.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F0756E-9FB8-4B54-B059-B9514945C028}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9F0756E-9FB8-4B54-B059-B9514945C028}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -463,7 +470,7 @@
         <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\kruger\Dropbox\JIPOVI\Documentos Varios\logoJipovi.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4C2787-9CA9-46F8-B0D9-4BC4DDCBF2F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD4C2787-9CA9-46F8-B0D9-4BC4DDCBF2F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -521,7 +528,7 @@
         <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\kruger\Dropbox\JIPOVI\Documentos Varios\logoJipovi.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCC3D88E-A717-4C60-A463-537184D77F69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BCC3D88E-A717-4C60-A463-537184D77F69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -579,7 +586,7 @@
         <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\kruger\Dropbox\JIPOVI\Documentos Varios\logoJipovi.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D1612D-985F-468A-8CCD-DB9DB5E0E865}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{69D1612D-985F-468A-8CCD-DB9DB5E0E865}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -660,7 +667,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -712,7 +719,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -906,7 +913,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -916,11 +923,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
@@ -933,7 +940,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A11" s="17" t="s">
         <v>1</v>
       </c>
@@ -942,7 +949,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
@@ -954,7 +961,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
@@ -964,7 +971,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>7</v>
       </c>
@@ -976,7 +983,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -986,7 +993,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>10</v>
       </c>
@@ -996,7 +1003,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -1006,7 +1013,7 @@
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>12</v>
       </c>
@@ -1016,7 +1023,7 @@
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
@@ -1026,7 +1033,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>14</v>
       </c>
@@ -1036,7 +1043,7 @@
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>15</v>
       </c>
@@ -1046,7 +1053,7 @@
       </c>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
@@ -1056,7 +1063,7 @@
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>17</v>
       </c>
@@ -1066,7 +1073,7 @@
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
@@ -1086,7 +1093,7 @@
       </c>
       <c r="D25" s="14"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>33</v>
       </c>
@@ -1132,13 +1139,13 @@
       <c r="A30" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="B30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="7"/>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>44</v>
       </c>
@@ -1148,17 +1155,17 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="B32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="6"/>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>59</v>
       </c>
@@ -1168,49 +1175,49 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="6"/>
@@ -1230,11 +1237,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
     <col min="4" max="4" width="29" style="10" bestFit="1" customWidth="1"/>
@@ -1247,7 +1254,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A11" s="17" t="s">
         <v>1</v>
       </c>
@@ -1256,7 +1263,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
@@ -1268,7 +1275,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
@@ -1278,7 +1285,7 @@
       </c>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>18</v>
       </c>
@@ -1286,7 +1293,9 @@
         <v>8</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1298,7 +1307,7 @@
       </c>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
@@ -1308,7 +1317,7 @@
       </c>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
@@ -1332,19 +1341,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="B19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="7"/>
       <c r="D19" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
@@ -1354,7 +1363,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
@@ -1364,7 +1373,7 @@
       </c>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
@@ -1374,7 +1383,7 @@
       </c>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>29</v>
       </c>
@@ -1384,7 +1393,7 @@
       <c r="C23" s="7"/>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>37</v>
       </c>
@@ -1394,7 +1403,7 @@
       </c>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>57</v>
       </c>
@@ -1402,51 +1411,53 @@
         <v>8</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1463,13 +1474,300 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:C41"/>
+  <dimension ref="A10:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="58" customWidth="1"/>
+    <col min="4" max="4" width="28" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A11" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:A12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A10:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
   </cols>
@@ -1481,7 +1779,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A11" s="17" t="s">
         <v>1</v>
       </c>
@@ -1490,7 +1788,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
@@ -1499,288 +1797,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="6"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="6"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="6"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A11:A12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:C18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="58" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>

--- a/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
+++ b/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ENTORNO_SGS\Fuentes\workspace\Documentacion\Pruebas Noviembre\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="69">
   <si>
     <t xml:space="preserve">REPORTE DE INCIDENCIAS </t>
   </si>
@@ -186,9 +191,6 @@
     <t xml:space="preserve">Eliminar campo parentezco y sexo </t>
   </si>
   <si>
-    <t xml:space="preserve">Falta botonde carga masiva de clientes </t>
-  </si>
-  <si>
     <t xml:space="preserve">Pantalla inicial debria ir la informacion de los grupos, el ingreso de personas a los grupos deberia activarse cuando la cotización cambie de estado a emitido </t>
   </si>
   <si>
@@ -220,12 +222,24 @@
   </si>
   <si>
     <t>Revisar esta funcionalidad el campo de RUC solo se debe ingresar una vez en la busqueda y queda guardado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falta botonde carga masiva de clientes / la carga masiva se considero para todos los ramos </t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Dentro de las coberturas debe exitir cajas de texto que permitan ingresar el valor de la cobertura, dos tasas y valor de la prima</t>
+  </si>
+  <si>
+    <t>Valor del grupo debe dar el total de la prima ingresada en las coberturas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -327,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -375,6 +389,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,7 +429,7 @@
         <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\kruger\Dropbox\JIPOVI\Documentos Varios\logoJipovi.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9F0756E-9FB8-4B54-B059-B9514945C028}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F0756E-9FB8-4B54-B059-B9514945C028}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -470,7 +487,7 @@
         <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\kruger\Dropbox\JIPOVI\Documentos Varios\logoJipovi.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD4C2787-9CA9-46F8-B0D9-4BC4DDCBF2F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4C2787-9CA9-46F8-B0D9-4BC4DDCBF2F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -528,7 +545,7 @@
         <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\kruger\Dropbox\JIPOVI\Documentos Varios\logoJipovi.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BCC3D88E-A717-4C60-A463-537184D77F69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCC3D88E-A717-4C60-A463-537184D77F69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -586,7 +603,7 @@
         <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\kruger\Dropbox\JIPOVI\Documentos Varios\logoJipovi.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{69D1612D-985F-468A-8CCD-DB9DB5E0E865}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D1612D-985F-468A-8CCD-DB9DB5E0E865}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -913,7 +930,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -923,11 +940,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
@@ -940,7 +957,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>1</v>
       </c>
@@ -949,7 +966,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
@@ -961,7 +978,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
@@ -971,7 +988,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>7</v>
       </c>
@@ -983,7 +1000,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -993,7 +1010,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>10</v>
       </c>
@@ -1003,7 +1020,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -1013,7 +1030,7 @@
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>12</v>
       </c>
@@ -1023,7 +1040,7 @@
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
@@ -1033,7 +1050,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>14</v>
       </c>
@@ -1043,7 +1060,7 @@
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>15</v>
       </c>
@@ -1053,7 +1070,7 @@
       </c>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
@@ -1063,7 +1080,7 @@
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>17</v>
       </c>
@@ -1073,7 +1090,7 @@
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
@@ -1093,7 +1110,7 @@
       </c>
       <c r="D25" s="14"/>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>33</v>
       </c>
@@ -1139,13 +1156,13 @@
       <c r="A30" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>44</v>
       </c>
@@ -1155,9 +1172,9 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>8</v>
@@ -1165,9 +1182,9 @@
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>8</v>
@@ -1175,49 +1192,49 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="6"/>
@@ -1237,11 +1254,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
     <col min="4" max="4" width="29" style="10" bestFit="1" customWidth="1"/>
@@ -1254,7 +1271,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>1</v>
       </c>
@@ -1263,7 +1280,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
@@ -1275,7 +1292,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
@@ -1285,7 +1302,7 @@
       </c>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>18</v>
       </c>
@@ -1294,7 +1311,7 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1307,7 +1324,7 @@
       </c>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
@@ -1317,7 +1334,7 @@
       </c>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
@@ -1341,7 +1358,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
@@ -1353,7 +1370,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
@@ -1363,7 +1380,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
@@ -1373,7 +1390,7 @@
       </c>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
@@ -1383,7 +1400,7 @@
       </c>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>29</v>
       </c>
@@ -1393,7 +1410,7 @@
       <c r="C23" s="7"/>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>37</v>
       </c>
@@ -1403,61 +1420,61 @@
       </c>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="D25" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1476,24 +1493,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
     <col min="4" max="4" width="28" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>1</v>
       </c>
@@ -1503,7 +1520,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
@@ -1515,7 +1532,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>30</v>
       </c>
@@ -1525,19 +1542,19 @@
       <c r="C13" s="7"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="D14" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>32</v>
       </c>
@@ -1546,10 +1563,10 @@
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>46</v>
       </c>
@@ -1558,10 +1575,10 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>48</v>
       </c>
@@ -1569,11 +1586,11 @@
         <v>8</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>49</v>
       </c>
@@ -1581,11 +1598,11 @@
         <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>50</v>
       </c>
@@ -1593,11 +1610,11 @@
         <v>8</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>51</v>
       </c>
@@ -1605,11 +1622,11 @@
         <v>8</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>52</v>
       </c>
@@ -1617,11 +1634,11 @@
         <v>8</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>53</v>
       </c>
@@ -1629,122 +1646,130 @@
         <v>8</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>54</v>
+    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="B25" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="6"/>
@@ -1763,11 +1788,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
   </cols>
@@ -1779,7 +1804,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>1</v>
       </c>
@@ -1788,7 +1813,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
@@ -1797,7 +1822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>47</v>
       </c>
@@ -1805,30 +1830,30 @@
         <v>8</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>

--- a/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
+++ b/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ENTORNO_SGS\Fuentes\workspace\Documentacion\Pruebas Noviembre\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
@@ -239,7 +234,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -265,7 +260,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +270,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -383,14 +384,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,7 +434,7 @@
         <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\kruger\Dropbox\JIPOVI\Documentos Varios\logoJipovi.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F0756E-9FB8-4B54-B059-B9514945C028}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9F0756E-9FB8-4B54-B059-B9514945C028}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -487,7 +492,7 @@
         <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\kruger\Dropbox\JIPOVI\Documentos Varios\logoJipovi.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4C2787-9CA9-46F8-B0D9-4BC4DDCBF2F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD4C2787-9CA9-46F8-B0D9-4BC4DDCBF2F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -545,7 +550,7 @@
         <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\kruger\Dropbox\JIPOVI\Documentos Varios\logoJipovi.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCC3D88E-A717-4C60-A463-537184D77F69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BCC3D88E-A717-4C60-A463-537184D77F69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -603,7 +608,7 @@
         <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\kruger\Dropbox\JIPOVI\Documentos Varios\logoJipovi.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D1612D-985F-468A-8CCD-DB9DB5E0E865}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{69D1612D-985F-468A-8CCD-DB9DB5E0E865}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -930,7 +935,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -940,11 +945,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
@@ -957,8 +962,8 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A11" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -966,8 +971,8 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -978,7 +983,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
@@ -988,7 +993,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>7</v>
       </c>
@@ -1000,7 +1005,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -1010,7 +1015,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>10</v>
       </c>
@@ -1020,7 +1025,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -1030,7 +1035,7 @@
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>12</v>
       </c>
@@ -1040,7 +1045,7 @@
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
@@ -1050,7 +1055,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>14</v>
       </c>
@@ -1060,7 +1065,7 @@
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>15</v>
       </c>
@@ -1070,7 +1075,7 @@
       </c>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
@@ -1080,7 +1085,7 @@
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>17</v>
       </c>
@@ -1090,7 +1095,7 @@
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
@@ -1110,7 +1115,7 @@
       </c>
       <c r="D25" s="14"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>33</v>
       </c>
@@ -1162,7 +1167,7 @@
       </c>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>44</v>
       </c>
@@ -1172,8 +1177,8 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
         <v>57</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -1182,8 +1187,8 @@
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -1192,49 +1197,49 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="6"/>
@@ -1255,10 +1260,10 @@
   <dimension ref="A10:D33"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
     <col min="4" max="4" width="29" style="10" bestFit="1" customWidth="1"/>
@@ -1271,8 +1276,8 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A11" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1280,8 +1285,8 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -1292,7 +1297,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
@@ -1302,7 +1307,7 @@
       </c>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>18</v>
       </c>
@@ -1324,7 +1329,7 @@
       </c>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
@@ -1334,7 +1339,7 @@
       </c>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
@@ -1358,7 +1363,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
@@ -1370,7 +1375,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
@@ -1380,7 +1385,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
@@ -1390,7 +1395,7 @@
       </c>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
@@ -1400,8 +1405,8 @@
       </c>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -1410,7 +1415,7 @@
       <c r="C23" s="7"/>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>37</v>
       </c>
@@ -1432,49 +1437,49 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1493,11 +1498,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
     <col min="4" max="4" width="28" style="10" customWidth="1"/>
@@ -1510,8 +1515,8 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A11" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1520,8 +1525,8 @@
       <c r="C11" s="4"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -1542,7 +1547,7 @@
       <c r="C13" s="7"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>31</v>
       </c>
@@ -1554,7 +1559,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>32</v>
       </c>
@@ -1566,7 +1571,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>46</v>
       </c>
@@ -1578,7 +1583,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>48</v>
       </c>
@@ -1590,7 +1595,7 @@
       </c>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>49</v>
       </c>
@@ -1602,7 +1607,7 @@
       </c>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>50</v>
       </c>
@@ -1614,7 +1619,7 @@
       </c>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>51</v>
       </c>
@@ -1626,7 +1631,7 @@
       </c>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>52</v>
       </c>
@@ -1638,7 +1643,7 @@
       </c>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>53</v>
       </c>
@@ -1662,7 +1667,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>54</v>
       </c>
@@ -1674,7 +1679,7 @@
       </c>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>55</v>
       </c>
@@ -1687,7 +1692,7 @@
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="17" t="s">
         <v>67</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -1704,72 +1709,72 @@
       </c>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="6"/>
@@ -1788,11 +1793,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
   </cols>
@@ -1804,8 +1809,8 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A11" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1813,8 +1818,8 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -1822,8 +1827,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1833,27 +1838,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>

--- a/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
+++ b/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ENTORNO_SGS\Fuentes\workspace\Documentacion\Pruebas Noviembre\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="73">
   <si>
     <t xml:space="preserve">REPORTE DE INCIDENCIAS </t>
   </si>
@@ -195,9 +200,6 @@
     <t xml:space="preserve">Campo de RUC esta desactivado no me permite ingresar el numero </t>
   </si>
   <si>
-    <t>Cuando biuco con numero de cedula solo me despliega dirección, contactos, numero de cedula no despliega nombre</t>
-  </si>
-  <si>
     <t xml:space="preserve">No me permite buscar por nombre, apellido, Razon Social </t>
   </si>
   <si>
@@ -229,12 +231,27 @@
   </si>
   <si>
     <t>Valor del grupo debe dar el total de la prima ingresada en las coberturas</t>
+  </si>
+  <si>
+    <t>La carga masiva se considero para todos los ramos que  manejen personas, maquinaria, vehículos etc.</t>
+  </si>
+  <si>
+    <t>Cuando busco con numero de cedula solo me despliega dirección, contactos, numero de cedula no despliega nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falta campo valor deducible por grupo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dentro del papup de ramos los ramos solo deben ingresar una sola vez no dos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El campo comisión no debe ingresar campos menores ni iguales a cero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -434,7 +451,7 @@
         <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\kruger\Dropbox\JIPOVI\Documentos Varios\logoJipovi.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9F0756E-9FB8-4B54-B059-B9514945C028}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F0756E-9FB8-4B54-B059-B9514945C028}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -492,7 +509,7 @@
         <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\kruger\Dropbox\JIPOVI\Documentos Varios\logoJipovi.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD4C2787-9CA9-46F8-B0D9-4BC4DDCBF2F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4C2787-9CA9-46F8-B0D9-4BC4DDCBF2F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -527,6 +544,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>748339</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D941CA72-71C8-41D5-8E55-B598EB53A2F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7820026" y="4343400"/>
+          <a:ext cx="3301038" cy="2238375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -550,7 +611,7 @@
         <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\kruger\Dropbox\JIPOVI\Documentos Varios\logoJipovi.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BCC3D88E-A717-4C60-A463-537184D77F69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCC3D88E-A717-4C60-A463-537184D77F69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -608,7 +669,7 @@
         <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\kruger\Dropbox\JIPOVI\Documentos Varios\logoJipovi.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{69D1612D-985F-468A-8CCD-DB9DB5E0E865}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D1612D-985F-468A-8CCD-DB9DB5E0E865}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -935,7 +996,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -946,10 +1007,10 @@
   <dimension ref="A10:D41"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
@@ -962,7 +1023,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>1</v>
       </c>
@@ -971,7 +1032,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
@@ -983,7 +1044,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
@@ -993,7 +1054,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>7</v>
       </c>
@@ -1005,7 +1066,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -1015,7 +1076,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>10</v>
       </c>
@@ -1025,7 +1086,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -1035,7 +1096,7 @@
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>12</v>
       </c>
@@ -1045,7 +1106,7 @@
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
@@ -1055,7 +1116,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>14</v>
       </c>
@@ -1065,7 +1126,7 @@
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>15</v>
       </c>
@@ -1075,7 +1136,7 @@
       </c>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
@@ -1085,7 +1146,7 @@
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>17</v>
       </c>
@@ -1095,7 +1156,7 @@
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
@@ -1115,7 +1176,7 @@
       </c>
       <c r="D25" s="14"/>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>33</v>
       </c>
@@ -1167,7 +1228,7 @@
       </c>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>44</v>
       </c>
@@ -1177,69 +1238,69 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="6"/>
@@ -1259,11 +1320,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
     <col min="4" max="4" width="29" style="10" bestFit="1" customWidth="1"/>
@@ -1276,7 +1337,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>1</v>
       </c>
@@ -1285,7 +1346,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
@@ -1297,7 +1358,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
@@ -1307,16 +1368,16 @@
       </c>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="D14" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1329,7 +1390,7 @@
       </c>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
@@ -1339,7 +1400,7 @@
       </c>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
@@ -1363,7 +1424,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
@@ -1375,7 +1436,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
@@ -1385,7 +1446,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
@@ -1395,7 +1456,7 @@
       </c>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
@@ -1405,7 +1466,7 @@
       </c>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>29</v>
       </c>
@@ -1415,7 +1476,7 @@
       <c r="C23" s="7"/>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>37</v>
       </c>
@@ -1434,52 +1495,60 @@
         <v>5</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="C26" s="6"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="C27" s="6"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1496,16 +1565,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:D41"/>
+  <dimension ref="A10:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
     <col min="4" max="4" width="28" style="10" customWidth="1"/>
+    <col min="5" max="5" width="49" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -1515,7 +1585,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>1</v>
       </c>
@@ -1525,7 +1595,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
@@ -1547,19 +1617,19 @@
       <c r="C13" s="7"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>32</v>
       </c>
@@ -1568,10 +1638,10 @@
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>46</v>
       </c>
@@ -1580,10 +1650,10 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>48</v>
       </c>
@@ -1591,11 +1661,11 @@
         <v>8</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>49</v>
       </c>
@@ -1603,11 +1673,11 @@
         <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>50</v>
       </c>
@@ -1615,11 +1685,11 @@
         <v>8</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>51</v>
       </c>
@@ -1627,11 +1697,11 @@
         <v>8</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>52</v>
       </c>
@@ -1639,11 +1709,11 @@
         <v>8</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>53</v>
       </c>
@@ -1651,23 +1721,26 @@
         <v>8</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>54</v>
       </c>
@@ -1675,11 +1748,11 @@
         <v>8</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>55</v>
       </c>
@@ -1687,97 +1760,117 @@
         <v>8</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="B27" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="6"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="6"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="6"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="6"/>
+      <c r="D41" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1793,11 +1886,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
   </cols>
@@ -1809,7 +1902,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>1</v>
       </c>
@@ -1818,7 +1911,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
@@ -1827,7 +1920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>47</v>
       </c>
@@ -1835,30 +1928,30 @@
         <v>8</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>

--- a/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
+++ b/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="74">
   <si>
     <t xml:space="preserve">REPORTE DE INCIDENCIAS </t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t xml:space="preserve">El campo comisión no debe ingresar campos menores ni iguales a cero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El papup de Ramos  no despliega los ramos ingresados en la lista </t>
   </si>
 </sst>
 </file>
@@ -750,7 +753,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -802,7 +805,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1320,7 +1323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -1519,8 +1522,12 @@
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="C28" s="6"/>
       <c r="D28" s="9"/>
     </row>
@@ -1567,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
+++ b/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
     <sheet name="ASEGURADORA" sheetId="2" r:id="rId2"/>
     <sheet name="ACCPERSONALES" sheetId="3" r:id="rId3"/>
     <sheet name="REPORTE CLIENTE" sheetId="4" r:id="rId4"/>
+    <sheet name="AGROPECUARIO" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="76">
   <si>
     <t xml:space="preserve">REPORTE DE INCIDENCIAS </t>
   </si>
@@ -249,6 +250,12 @@
   </si>
   <si>
     <t xml:space="preserve">El papup de Ramos  no despliega los ramos ingresados en la lista </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el papup de pago campo dias de cobertura debe calcularse automaticamente </t>
+  </si>
+  <si>
+    <t>Campo Prima neta debe calcularse automaticamente  de acuerdo a la suma asegurada y a la tasa  esto es para todos los ramos</t>
   </si>
 </sst>
 </file>
@@ -710,6 +717,64 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3276600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\kruger\Dropbox\JIPOVI\Documentos Varios\logoJipovi.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24D4A6BD-2B38-4340-AE02-D305D45CF920}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3276600" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -1574,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1801,15 +1866,23 @@
       <c r="C28" s="6"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C29" s="6"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C30" s="6"/>
       <c r="D30" s="9"/>
     </row>
@@ -1894,7 +1967,7 @@
   <dimension ref="A10:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1931,12 +2004,91 @@
       <c r="A13" s="18" t="s">
         <v>47</v>
       </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:A12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A10:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="B13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>59</v>
-      </c>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>

--- a/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
+++ b/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="ACCPERSONALES" sheetId="3" r:id="rId3"/>
     <sheet name="REPORTE CLIENTE" sheetId="4" r:id="rId4"/>
     <sheet name="AGROPECUARIO" sheetId="5" r:id="rId5"/>
+    <sheet name="ASISTENCIA MEDICA" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="89">
   <si>
     <t xml:space="preserve">REPORTE DE INCIDENCIAS </t>
   </si>
@@ -256,13 +257,75 @@
   </si>
   <si>
     <t>Campo Prima neta debe calcularse automaticamente  de acuerdo a la suma asegurada y a la tasa  esto es para todos los ramos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando busco por RUC no sale el nombre de la empresa </t>
+  </si>
+  <si>
+    <t>Panel de aseguradoras no funciona el option no deja modificar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregar campo que indique el valor de prima por asegurado  este valor no se calcula da la compañía </t>
+  </si>
+  <si>
+    <t>Campo total mensual grupo debe ser calculado por la prima neta por la cantidad de asegurados, este valor multiplicar por el valor de super de bancos 3,5 y seguro campesino 0,5%</t>
+  </si>
+  <si>
+    <t>Este ramo no genera IVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dentro del papup de Seleccionar Beneficios  debe existir un campo que permita ingresar valores </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corregir las Ñ papup Seleccionar Beneficios Adicionales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al papup de Seleccionar Beneficios Adicionales aderir campo para valores </t>
+  </si>
+  <si>
+    <t>Pap up 
+Seleccionar Maternidad debe tener campo para poner valores</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cambiar el texto de de valor del plan por </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>monto de cobertura</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregar carga Masiva de asegurados y dependientes </t>
+  </si>
+  <si>
+    <t>La lista no esta borrando lo paremetros ingresados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En pestaña parentezco debe existir campo parentesco que sea esposa, hijo, hija </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +345,13 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -775,6 +845,108 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3276600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\kruger\Dropbox\JIPOVI\Documentos Varios\logoJipovi.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8661F863-0BC7-4D4A-B535-7C8FF112B0AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3276600" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>217166</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68E5B1DB-2BE6-49CC-8533-F9714F6D8E66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5543550" y="4914900"/>
+          <a:ext cx="4410075" cy="1169666"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2047,8 +2219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2122,4 +2294,269 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A10:C45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:A12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
+++ b/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ENTORNO_SGS\Fuentes\workspace\Documentacion\Pruebas Noviembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="AGROPECUARIO" sheetId="5" r:id="rId5"/>
     <sheet name="ASISTENCIA MEDICA" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="89">
   <si>
     <t xml:space="preserve">REPORTE DE INCIDENCIAS </t>
   </si>
@@ -175,12 +175,6 @@
     <t xml:space="preserve">No realiza la busqueda de clientes por numero de cedula </t>
   </si>
   <si>
-    <t xml:space="preserve">Prima total por persona debe calcularse automaticamente de la siguiente manera: prima neta por persona + 3,5% super de bancos y seguros y 0,50% Seguros Campesino + Derechos de  + IVA emisión  y el campo no debe ser modificado </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campo tasa  no va en la pantalla principal </t>
-  </si>
-  <si>
     <t>Se debe agregar un campo de numero de asegurados</t>
   </si>
   <si>
@@ -214,9 +208,6 @@
     <t>Revisar, al dar clic en el icono</t>
   </si>
   <si>
-    <t>revisar</t>
-  </si>
-  <si>
     <t>Pendiente</t>
   </si>
   <si>
@@ -239,9 +230,6 @@
   </si>
   <si>
     <t>Cuando busco con numero de cedula solo me despliega dirección, contactos, numero de cedula no despliega nombre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falta campo valor deducible por grupo </t>
   </si>
   <si>
     <t xml:space="preserve">Dentro del papup de ramos los ramos solo deben ingresar una sola vez no dos </t>
@@ -319,6 +307,18 @@
   </si>
   <si>
     <t xml:space="preserve">En pestaña parentezco debe existir campo parentesco que sea esposa, hijo, hija </t>
+  </si>
+  <si>
+    <t>Prima total por persona debe calcularse automaticamente de la siguiente manera: prima neta por persona + 3,5% super de bancos y seguros y 0,50% Seguros Campesino + Derechos de  Emisión debe ser un campo modificable ingresado por el ejecutivo</t>
+  </si>
+  <si>
+    <t>Falta campo valor deducible por grupo este campo debe ser para cada grupo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo tasa  no va en la pantalla principal, Prima neta es el costo que te da la aseguradora por asegurado en base cobertura solicitada. Para calcular la tasa es prima neta dividido para la suma asegurada. Suma asegurada propone el cliente llego al calculo de la tasa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo Prima Neta debe ser la suma de l valor de la prima neta por grupo en el papu pago poliza </t>
   </si>
 </sst>
 </file>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="6" t="s">
@@ -1490,7 +1490,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="6" t="s">
@@ -1617,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1728,19 +1728,19 @@
     </row>
     <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>8</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>8</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>8</v>
@@ -1811,8 +1811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1867,10 +1867,10 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1882,135 +1882,133 @@
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>49</v>
+    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>8</v>
@@ -2020,7 +2018,7 @@
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>8</v>
@@ -2028,9 +2026,9 @@
       <c r="C27" s="6"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>70</v>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>8</v>
@@ -2040,7 +2038,7 @@
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>8</v>
@@ -2050,7 +2048,7 @@
     </row>
     <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>8</v>
@@ -2058,9 +2056,13 @@
       <c r="C30" s="6"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C31" s="6"/>
       <c r="D31" s="9"/>
     </row>
@@ -2178,7 +2180,7 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2300,7 +2302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -2336,7 +2338,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>8</v>
@@ -2345,7 +2347,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>8</v>
@@ -2354,7 +2356,7 @@
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>8</v>
@@ -2363,7 +2365,7 @@
     </row>
     <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>8</v>
@@ -2372,7 +2374,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>8</v>
@@ -2381,7 +2383,7 @@
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>8</v>
@@ -2390,7 +2392,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>8</v>
@@ -2399,7 +2401,7 @@
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>8</v>
@@ -2408,7 +2410,7 @@
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>8</v>
@@ -2417,7 +2419,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>8</v>
@@ -2426,7 +2428,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>8</v>
@@ -2435,7 +2437,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>8</v>
@@ -2444,7 +2446,7 @@
     </row>
     <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>8</v>

--- a/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
+++ b/Documentacion/Pruebas Noviembre/INCIDENCIAS.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="90">
   <si>
     <t xml:space="preserve">REPORTE DE INCIDENCIAS </t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t xml:space="preserve">Campo Prima Neta debe ser la suma de l valor de la prima neta por grupo en el papu pago poliza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo numero de póliza deberia tambier recibir letras </t>
   </si>
 </sst>
 </file>
@@ -1812,7 +1815,7 @@
   <dimension ref="A10:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2067,8 +2070,12 @@
       <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
+      <c r="A32" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C32" s="6"/>
       <c r="D32" s="9"/>
     </row>
